--- a/scoring/Scoring_Questions new.xlsx
+++ b/scoring/Scoring_Questions new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledersb\Workspace\WinProjects\PQChoiceAssistant\scoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledersb\Workspace\WinProjects\pqc-dt\PQChoiceAssistant\scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A73655-7D93-4F35-9FD8-2BE6F16B586A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB43426-12CD-42C3-A34B-71008B445794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EDCA17D-B8E0-4188-B2A8-1D102FBE3550}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="257">
   <si>
     <t>Score range</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Does your device support floating point arithmetic?</t>
   </si>
   <si>
-    <t>Some cryptographic schemes require support for floating point arithmetic to enable a secure implementation.</t>
-  </si>
-  <si>
     <t>DSS only</t>
   </si>
   <si>
@@ -623,15 +620,6 @@
     <t>Yes, for polynomial operations or big integer operations</t>
   </si>
   <si>
-    <t>Sommige PQC-algoritmen hebben hardwareondersteuning nodig voor floating point arithmetic, om te garanderen dat het algoritme veilig is geïmplementeerd.</t>
-  </si>
-  <si>
-    <t>You indicated that your device does not support floating point arithmetic. Falcon requires floating points in some of its operations, so it is not suitable for your use case and is not displayed as an option.</t>
-  </si>
-  <si>
-    <t>U heeft aangegeven dat uw apparaat geen floating point berekeningen ondersteunt. Falcon heeft floating points nodig in sommige berekeningen, dus is het niet beschikbaar voor uw toepassing en daarom niet als optie weergegeven.</t>
-  </si>
-  <si>
     <t>My use case can afford larger cryptographic keys than currently used.</t>
   </si>
   <si>
@@ -809,12 +797,6 @@
     <t>You indicated you follow standardisation. ISO has not selected BIKE and HQC for standardisation, so you should not select these if you want to follow ISO standards.</t>
   </si>
   <si>
-    <t>You indicated you follow standardisation. NIST has not selected FrodoKEM for standardisation, so you should not select it if you want to follow NIST standards.</t>
-  </si>
-  <si>
-    <t>U heeft aangegeven dat u standaardisatie volgt. NIST heeft FrodoKEM niet geselecteerd als standaard, dus u moet dit algoritme niet selecteren als u de NIST-standaard wil volgen</t>
-  </si>
-  <si>
     <t>U heeft aangegeven dat u het gebruik van twee algoritmen in hybride modus ondersteunt. Het is aanbevolen om dit te doen wanneer mogelijk, omdat het de flexibiliteit biedt om snel tussen de twee algoritmen te wisselen. Let wel dat dit meer performance en opslag vereist.</t>
   </si>
   <si>
@@ -822,6 +804,24 @@
   </si>
   <si>
     <t>Het ontwerp van de nieuwe cryptografische algoritmen maakt ze vaak langzamer dan de huidige oplossingen zoals RSA of ECC en dit ontwerp gebruikt bovendien grotere cryptografische sleutels. De nieuwe algoritmen worden mogelijk een bottleneck voor de toepassing, zowel in resources als tijd. Uw toepassing zal met grotere cryptographische ciphertexts/handtekeningen moeten omgaan, die ook uitgewisseld moeten worden.</t>
+  </si>
+  <si>
+    <t>You indicated you follow standardisation. NIST has not selected FrodoKEM, Classic McEliece or BIKE for standardisation, so you should not select it if you want to follow NIST standards.</t>
+  </si>
+  <si>
+    <t>U heeft aangegeven dat u standaardisatie volgt. NIST heeft FrodoKEM, Classic McEliece en BIKE niet geselecteerd als standaard, dus u moet dit algoritme niet selecteren als u de NIST-standaard wil volgen</t>
+  </si>
+  <si>
+    <t>Some cryptographic schemes require support for floating point arithmetic to enable a secure, efficient implementation.</t>
+  </si>
+  <si>
+    <t>Sommige PQC-algoritmen hebben hardwareondersteuning nodig voor floating point arithmetic, om te garanderen dat het algoritme veilig en efficiënt is geïmplementeerd.</t>
+  </si>
+  <si>
+    <t>You indicated that your device does not support floating point arithmetic. Falcon requires floating points to perform some of its operations securely and efficiently, so it is not suitable for your use case and is not displayed as an option.</t>
+  </si>
+  <si>
+    <t>U heeft aangegeven dat uw apparaat geen floating point berekeningen ondersteunt. Falcon heeft floating points nodig om sommige berekeningen veilig en efficiënt uit te voeren, dus is het niet beschikbaar voor uw toepassing en daarom niet als optie weergegeven.</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1097,7 +1097,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1129,9 +1128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1169,7 +1168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1275,7 +1274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1417,7 +1416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1428,10 +1427,10 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="P16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AA42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
@@ -1501,20 +1500,20 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="38" t="s">
-        <v>243</v>
+      <c r="R1" t="s">
+        <v>239</v>
       </c>
       <c r="S1" t="s">
         <v>11</v>
       </c>
       <c r="T1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" t="s">
         <v>169</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>170</v>
-      </c>
-      <c r="V1" t="s">
-        <v>171</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -1532,10 +1531,10 @@
         <v>16</v>
       </c>
       <c r="AB1" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC1" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1573,7 +1572,7 @@
         <v>25</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -1842,7 +1841,7 @@
         <v>38</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y8" s="27"/>
       <c r="Z8" s="2" t="s">
@@ -1855,7 +1854,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1888,19 +1887,19 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="V9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z9" t="s">
         <v>42</v>
       </c>
       <c r="AB9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -1974,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -2024,19 +2023,19 @@
       </c>
       <c r="P12" s="24"/>
       <c r="U12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z12" t="s">
         <v>42</v>
       </c>
       <c r="AB12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AC12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -2122,7 +2121,7 @@
         <v>57</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -2397,13 +2396,13 @@
         <v>72</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2665,7 +2664,7 @@
         <v>21</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="S26" s="2">
         <v>3</v>
@@ -2674,25 +2673,25 @@
         <v>41</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Z26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA26" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
-      <c r="B27" s="38" t="s">
-        <v>249</v>
+      <c r="B27" t="s">
+        <v>245</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -2704,13 +2703,13 @@
         <v>-1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J27" s="9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2725,13 +2724,13 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z27" t="s">
         <v>78</v>
       </c>
       <c r="AB27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -2767,20 +2766,17 @@
         <v>5</v>
       </c>
       <c r="U28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Z28" t="s">
         <v>79</v>
       </c>
       <c r="AB28" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
       <c r="E29" t="s">
         <v>80</v>
       </c>
@@ -2888,13 +2884,13 @@
         <v>90</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3217,7 +3213,7 @@
         <v>103</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -3259,7 +3255,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="E40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3351,22 +3347,22 @@
         <v>41</v>
       </c>
       <c r="W42" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="X42" s="2" t="s">
+      <c r="Z42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="AA42" s="2" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
-      <c r="B43" s="38" t="s">
-        <v>109</v>
+      <c r="B43" t="s">
+        <v>108</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -3409,30 +3405,27 @@
         <v>3</v>
       </c>
       <c r="V44" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="Z44" t="s">
         <v>43</v>
       </c>
-      <c r="AB44" t="s">
-        <v>192</v>
-      </c>
       <c r="AC44" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -3446,25 +3439,25 @@
         <v>41</v>
       </c>
       <c r="W45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X45" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="X45" s="2" t="s">
+      <c r="Y45" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Y45" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="Z45" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3710,13 +3703,13 @@
     <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" s="12"/>
       <c r="J51" s="12"/>
@@ -3730,16 +3723,16 @@
         <v>41</v>
       </c>
       <c r="W51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="X51" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="Z51" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z51" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="AA51" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
@@ -3748,7 +3741,7 @@
         <v>10000</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F52" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D52/2, 3, 5))</f>
@@ -3789,7 +3782,7 @@
       </c>
       <c r="P52" s="28"/>
       <c r="Z52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
@@ -3798,7 +3791,7 @@
         <v>50000</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F53" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D53/2, 3, 5))</f>
@@ -3838,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="Z53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
@@ -3847,7 +3840,7 @@
         <v>100000</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F54" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D54/2, 3, 5))</f>
@@ -3887,7 +3880,7 @@
         <v>5</v>
       </c>
       <c r="Z54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
@@ -3896,7 +3889,7 @@
         <v>1000000</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D55/2, 3, 5))</f>
@@ -3936,19 +3929,19 @@
         <v>5</v>
       </c>
       <c r="Z55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" s="12"/>
       <c r="J56" s="12"/>
@@ -3962,16 +3955,16 @@
         <v>41</v>
       </c>
       <c r="W56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X56" s="2" t="s">
+      <c r="Z56" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Z56" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="AA56" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
@@ -3980,7 +3973,7 @@
         <v>10000</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D57/2, 3, 5))</f>
@@ -4019,7 +4012,7 @@
         <v>5</v>
       </c>
       <c r="Z57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
@@ -4028,7 +4021,7 @@
         <v>50000</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F58">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D58/2, 3, 5))</f>
@@ -4067,7 +4060,7 @@
         <v>5</v>
       </c>
       <c r="Z58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
@@ -4076,7 +4069,7 @@
         <v>100000</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D59/2, 3, 5))</f>
@@ -4115,7 +4108,7 @@
         <v>5</v>
       </c>
       <c r="Z59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
@@ -4124,7 +4117,7 @@
         <v>1000000</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D60, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D60/2, 3, 5))</f>
@@ -4163,21 +4156,21 @@
         <v>5</v>
       </c>
       <c r="Z60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
@@ -4191,19 +4184,19 @@
         <v>41</v>
       </c>
       <c r="W61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="X61" s="2" t="s">
+      <c r="Y61" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Y61" s="2" t="s">
+      <c r="Z61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Z61" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="AA61" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
@@ -4449,13 +4442,13 @@
     <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
       <c r="B67" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
@@ -4469,16 +4462,16 @@
         <v>41</v>
       </c>
       <c r="W67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="X67" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="X67" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="Z67" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
@@ -4487,7 +4480,7 @@
         <v>10000</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D68/2, 3, 5))</f>
@@ -4526,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="Z68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
@@ -4535,7 +4528,7 @@
         <v>50000</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D69/2, 3, 5))</f>
@@ -4574,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="Z69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
@@ -4583,7 +4576,7 @@
         <v>100000</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D70/2, 3, 5))</f>
@@ -4622,7 +4615,7 @@
         <v>5</v>
       </c>
       <c r="Z70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
@@ -4631,7 +4624,7 @@
         <v>1000000</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D71/2, 3, 5))</f>
@@ -4670,21 +4663,21 @@
         <v>5</v>
       </c>
       <c r="Z71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q72" s="2" t="s">
         <v>21</v>
@@ -4696,25 +4689,25 @@
         <v>41</v>
       </c>
       <c r="W72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="X72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y72" s="2" t="s">
+      <c r="Z72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Z72" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="AA72" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="29"/>
-      <c r="B73" s="38" t="s">
-        <v>109</v>
+      <c r="B73" t="s">
+        <v>108</v>
       </c>
       <c r="E73" t="s">
         <v>41</v>
@@ -4759,13 +4752,13 @@
     <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="29"/>
       <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="E75" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>41</v>
@@ -4777,25 +4770,25 @@
         <v>41</v>
       </c>
       <c r="W75" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="X75" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z75" s="3" t="s">
+      <c r="AA75" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
-      <c r="B76" s="38" t="s">
-        <v>109</v>
+      <c r="B76" t="s">
+        <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L76">
         <v>5</v>
@@ -4810,13 +4803,13 @@
         <v>5</v>
       </c>
       <c r="Z76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L77">
         <v>5</v>
@@ -4831,31 +4824,31 @@
         <v>5</v>
       </c>
       <c r="Z77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
       <c r="E78" t="s">
+        <v>157</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="X78" t="s">
         <v>158</v>
       </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>5</v>
-      </c>
-      <c r="O78">
-        <v>5</v>
-      </c>
-      <c r="X78" t="s">
+      <c r="Z78" t="s">
         <v>159</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
@@ -4876,7 +4869,7 @@
         <v>5</v>
       </c>
       <c r="X79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z79" t="s">
         <v>98</v>
@@ -4884,16 +4877,16 @@
     </row>
     <row r="80" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>21</v>
@@ -4905,25 +4898,25 @@
         <v>21</v>
       </c>
       <c r="W80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y80" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y80" s="2" t="s">
+      <c r="Z80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA80" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="Z80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA80" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
-      <c r="B81" s="38" t="s">
-        <v>109</v>
+      <c r="B81" t="s">
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>41</v>
@@ -4941,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Z81" t="s">
         <v>42</v>
@@ -4949,7 +4942,6 @@
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="30"/>
-      <c r="B82" s="38"/>
       <c r="E82" t="s">
         <v>21</v>
       </c>
@@ -4966,16 +4958,16 @@
         <v>-1</v>
       </c>
       <c r="V82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Z82" t="s">
         <v>43</v>
       </c>
       <c r="AB82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AC82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5008,11 +5000,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -5028,13 +5020,13 @@
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>9</v>
@@ -5074,7 +5066,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="20"/>
@@ -5090,10 +5082,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C4" s="9">
         <v>62056</v>
@@ -5111,7 +5103,7 @@
         <v>4535035</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I4">
         <v>247152</v>
@@ -5128,10 +5120,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C5" s="9">
         <v>74852</v>
@@ -5149,7 +5141,7 @@
         <v>504653</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I5">
         <v>476989</v>
@@ -5166,10 +5158,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C6" s="9">
         <v>59944</v>
@@ -5187,7 +5179,7 @@
         <v>10382235</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I6">
         <v>236726</v>
@@ -5204,7 +5196,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="20"/>
@@ -5220,10 +5212,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C8" s="9">
         <v>1568</v>
@@ -5241,7 +5233,7 @@
         <v>5122</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I8">
         <v>2592</v>
@@ -5258,10 +5250,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C9" s="9">
         <v>3168</v>
@@ -5279,7 +5271,7 @@
         <v>16494</v>
       </c>
       <c r="H9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I9">
         <v>4864</v>
@@ -5296,10 +5288,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C10" s="9">
         <v>1568</v>
@@ -5317,7 +5309,7 @@
         <v>5154</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I10">
         <v>4595</v>
@@ -5334,11 +5326,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>2</v>
@@ -5354,13 +5346,13 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="6" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>9</v>
@@ -5368,7 +5360,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
@@ -5384,7 +5376,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="23">
@@ -5418,7 +5410,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="23">
@@ -5452,7 +5444,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="23">
@@ -5486,7 +5478,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="25"/>
@@ -5502,7 +5494,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="23">
@@ -5536,7 +5528,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="23">
@@ -5570,7 +5562,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="23">
@@ -5604,12 +5596,12 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -5641,7 +5633,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -5673,7 +5665,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C25">
         <v>4.7571441561688239</v>
@@ -5705,7 +5697,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5721,7 +5713,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -5751,12 +5743,12 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C30">
         <f>5-$O$30*(5-C28)</f>
@@ -5795,7 +5787,7 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -5803,7 +5795,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="O31">
         <v>5</v>
@@ -5811,7 +5803,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5827,10 +5819,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>6116</v>
@@ -5862,10 +5854,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C34">
         <v>8780</v>
@@ -5897,10 +5889,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C35">
         <v>9556</v>
@@ -5932,37 +5924,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5974,46 +5966,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">PQC Beslisboom</TNOC_ClusterName>
-    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">P060.55368</TNOC_ClusterId>
-    <TaxCatchAll xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Value>5</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <lca20d149a844688b6abf34073d5c21d xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lca20d149a844688b6abf34073d5c21d>
-    <bac4ab11065f4f6c809c820c57e320e5 xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bac4ab11065f4f6c809c820c57e320e5>
-    <h15fbb78f4cb41d290e72f301ea2865f xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
-        </TermInfo>
-      </Terms>
-    </h15fbb78f4cb41d290e72f301ea2865f>
-    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
-        </TermInfo>
-      </Terms>
-    </n2a7a23bcc2241cb9261f9a914c7c1bb>
-    <_dlc_DocId xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">QEDC3X5A3XE2-1796170530-30</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Url>https://365tno.sharepoint.com/teams/P060.61503/_layouts/15/DocIdRedir.aspx?ID=QEDC3X5A3XE2-1796170530-30</Url>
-      <Description>QEDC3X5A3XE2-1796170530-30</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Cluster Document" ma:contentTypeID="0x010100A35317DCC28344A7B82488658A034A5C01008D81D188DA6BC443BF17172C4B505507" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8aa881352a24089148fe1e0d4b98037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7" xmlns:ns3="673f842b-d5bd-4ddf-8e8f-113718fad97a" xmlns:ns5="732bbd6f-0030-4cf3-b969-3707b8f3c745" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37b3cf052d57df052a9e8ab2332671e7" ns2:_="" ns3:_="" ns5:_="">
     <xsd:import namespace="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
@@ -6264,84 +6275,63 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">PQC Beslisboom</TNOC_ClusterName>
+    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">P060.55368</TNOC_ClusterId>
+    <TaxCatchAll xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Value>5</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <lca20d149a844688b6abf34073d5c21d xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lca20d149a844688b6abf34073d5c21d>
+    <bac4ab11065f4f6c809c820c57e320e5 xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bac4ab11065f4f6c809c820c57e320e5>
+    <h15fbb78f4cb41d290e72f301ea2865f xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
+        </TermInfo>
+      </Terms>
+    </h15fbb78f4cb41d290e72f301ea2865f>
+    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
+        </TermInfo>
+      </Terms>
+    </n2a7a23bcc2241cb9261f9a914c7c1bb>
+    <_dlc_DocId xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">QEDC3X5A3XE2-1796170530-30</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Url>https://365tno.sharepoint.com/teams/P060.61503/_layouts/15/DocIdRedir.aspx?ID=QEDC3X5A3XE2-1796170530-30</Url>
+      <Description>QEDC3X5A3XE2-1796170530-30</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032FD5B7-4C2A-4ADC-ADEC-4672C492D926}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="673f842b-d5bd-4ddf-8e8f-113718fad97a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="732bbd6f-0030-4cf3-b969-3707b8f3c745"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6066CEB6-899C-40B9-B1A5-21F741553731}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6361,18 +6351,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032FD5B7-4C2A-4ADC-ADEC-4672C492D926}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="673f842b-d5bd-4ddf-8e8f-113718fad97a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="732bbd6f-0030-4cf3-b969-3707b8f3c745"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/scoring/Scoring_Questions new.xlsx
+++ b/scoring/Scoring_Questions new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledersb\Workspace\WinProjects\pqc-dt\PQChoiceAssistant\scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB43426-12CD-42C3-A34B-71008B445794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DE8800-6AB3-4B60-9799-957293A67F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EDCA17D-B8E0-4188-B2A8-1D102FBE3550}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="267">
   <si>
     <t>Score range</t>
   </si>
@@ -374,15 +374,9 @@
     <t>Ja, voor polynoom operaties</t>
   </si>
   <si>
-    <t>Does your device support floating point arithmetic?</t>
-  </si>
-  <si>
     <t>DSS only</t>
   </si>
   <si>
-    <t>Ondersteunt uw apparaat floating point arithmetic?</t>
-  </si>
-  <si>
     <t>Category 5 - Storage</t>
   </si>
   <si>
@@ -812,16 +806,52 @@
     <t>U heeft aangegeven dat u standaardisatie volgt. NIST heeft FrodoKEM, Classic McEliece en BIKE niet geselecteerd als standaard, dus u moet dit algoritme niet selecteren als u de NIST-standaard wil volgen</t>
   </si>
   <si>
-    <t>Some cryptographic schemes require support for floating point arithmetic to enable a secure, efficient implementation.</t>
-  </si>
-  <si>
-    <t>Sommige PQC-algoritmen hebben hardwareondersteuning nodig voor floating point arithmetic, om te garanderen dat het algoritme veilig en efficiënt is geïmplementeerd.</t>
-  </si>
-  <si>
-    <t>You indicated that your device does not support floating point arithmetic. Falcon requires floating points to perform some of its operations securely and efficiently, so it is not suitable for your use case and is not displayed as an option.</t>
-  </si>
-  <si>
-    <t>U heeft aangegeven dat uw apparaat geen floating point berekeningen ondersteunt. Falcon heeft floating points nodig om sommige berekeningen veilig en efficiënt uit te voeren, dus is het niet beschikbaar voor uw toepassing en daarom niet als optie weergegeven.</t>
+    <t>Which of the following statements apply to your situation?\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30001. The duration of the signing operation can be timed by a non-trusted party\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30002. The signing operation needs to be very fast\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30003. I am able to use hardware that is specially designed or securely tested for FN-DSA</t>
+  </si>
+  <si>
+    <t>1 does not apply</t>
+  </si>
+  <si>
+    <t>1, but not 2</t>
+  </si>
+  <si>
+    <t>1 and 2, but not 3</t>
+  </si>
+  <si>
+    <t>1, 2 and 3</t>
+  </si>
+  <si>
+    <t>1 is niet van toepassing</t>
+  </si>
+  <si>
+    <t>1, maar niet 2</t>
+  </si>
+  <si>
+    <t>1 en 2, maar niet 3</t>
+  </si>
+  <si>
+    <t>1, 2 en 3</t>
+  </si>
+  <si>
+    <t>U heeft aangegeven dat u constant-time handtekeninggeneratie nodig heeft, maar niet zeer snel. Als u FN-DSA gebruikt, moet u dit daarom doen met floating point emulatie om veiligheid te waarborgen.</t>
+  </si>
+  <si>
+    <t>You indicated that you require constant-time signature generation, although not very fast. If you use FN-DSA, you must therefore use it with floating point emulation to ensure security.</t>
+  </si>
+  <si>
+    <t>U heeft aangegeven dat u snelle, constant-time handtekeninggeneratie nodig heeft, maar dat u geen specifieke hardware for FN-DSA heeft. Om deze reden kunt u FN-DSA niet gebruiken en deze wordt daarom niet als optie weergegeven.</t>
+  </si>
+  <si>
+    <t>You indicated that you require fast, constant-time signature generation, but you do not have suitable hardware for FN-DSA. For this reason, you should not use FN-DSA and it is therefore not displayed as an option.</t>
+  </si>
+  <si>
+    <t>Welke van de volgende stellingen is van toepassing op uw situatie?\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30001. De duur van het zetten van een handtekening kan worden getimed door een niet vertrouwde partij\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30002. Het is belangrijk dat het zetten van handtekeningen snel is\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30003. I k kan hardware gebruiken die speciaal ontworpen of gecontroleerd veilig is voor FN-DSA</t>
+  </si>
+  <si>
+    <t>Sommige PQC-algoritmen hebben hardwareondersteuning nodig voor floating point arithmetic, om te garanderen dat het algoritme veilig en efficiënt is geïmplementeerd. In het bijzonder is FN-DSA zeer moeilijk veilig te implementeren met algemene floating point hardware-ondersteuning, en is zeer langzaam zonder floating points. In sommige situaties is daarom speciale hardware vereist.</t>
+  </si>
+  <si>
+    <t>Some cryptographic schemes require support for floating point arithmetic to enable a secure, efficient implementation. In particular, FN-DSA is very difficult to implement securely with general floating point hardware support, and very slow without floating points. In some situations, it may thus require special hardware.</t>
   </si>
 </sst>
 </file>
@@ -1424,13 +1454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A49395-FAC0-45AC-A805-A486AE62D345}">
-  <dimension ref="A1:AC82"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AA42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomRight" activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
@@ -1501,19 +1531,19 @@
         <v>10</v>
       </c>
       <c r="R1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S1" t="s">
         <v>11</v>
       </c>
       <c r="T1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V1" t="s">
         <v>168</v>
-      </c>
-      <c r="U1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>170</v>
       </c>
       <c r="W1" t="s">
         <v>12</v>
@@ -1531,10 +1561,10 @@
         <v>16</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1572,7 +1602,7 @@
         <v>25</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -1841,7 +1871,7 @@
         <v>38</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y8" s="27"/>
       <c r="Z8" s="2" t="s">
@@ -1854,7 +1884,7 @@
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
@@ -1887,19 +1917,19 @@
         <v>5</v>
       </c>
       <c r="U9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z9" t="s">
         <v>42</v>
       </c>
       <c r="AB9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
@@ -1973,7 +2003,7 @@
         <v>50</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -2023,19 +2053,19 @@
       </c>
       <c r="P12" s="24"/>
       <c r="U12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z12" t="s">
         <v>42</v>
       </c>
       <c r="AB12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -2121,7 +2151,7 @@
         <v>57</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
@@ -2396,13 +2426,13 @@
         <v>72</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="C21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2664,7 +2694,7 @@
         <v>21</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S26" s="2">
         <v>3</v>
@@ -2673,25 +2703,25 @@
         <v>41</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -2724,13 +2754,13 @@
         <v>5</v>
       </c>
       <c r="U27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z27" t="s">
         <v>78</v>
       </c>
       <c r="AB27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -2766,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="U28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Z28" t="s">
         <v>79</v>
       </c>
       <c r="AB28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -2884,13 +2914,13 @@
         <v>90</v>
       </c>
       <c r="AA31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="32"/>
       <c r="C32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3213,7 +3243,7 @@
         <v>103</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
@@ -3255,7 +3285,7 @@
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -3333,7 +3363,7 @@
         <v>19</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -3347,25 +3377,25 @@
         <v>41</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z42" s="3" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -3373,7 +3403,7 @@
         <v>3</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>3</v>
@@ -3382,13 +3412,13 @@
         <v>3</v>
       </c>
       <c r="Z43" t="s">
-        <v>42</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="32"/>
       <c r="E44" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3396,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="M44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>3</v>
@@ -3405,446 +3435,399 @@
         <v>3</v>
       </c>
       <c r="V44" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" s="32"/>
+      <c r="E45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="V45" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>258</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" s="32"/>
+      <c r="E46" t="s">
         <v>255</v>
       </c>
-      <c r="Z44" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="Q47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="2">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="X47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="Q45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="2">
-        <v>1</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W45" s="2" t="s">
+      <c r="Y47" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X45" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="33"/>
-      <c r="C46" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!C$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!D$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="H46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!E$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="I46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!F$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="J46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!G$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!I$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="M46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!J$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="N46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!K$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="O46">
-        <f>$D46*MAX(0, 5-$C$47*(5-ScoreCalculation!L$24)) +(1-$D46)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="33"/>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>0.25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!C$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!D$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>4.0569596865311448</v>
-      </c>
-      <c r="H47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!E$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>3.75</v>
-      </c>
-      <c r="I47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!F$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>4.508063885035817</v>
-      </c>
-      <c r="J47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!G$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>4.4889901542954052</v>
-      </c>
-      <c r="L47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!I$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>3.75</v>
-      </c>
-      <c r="M47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!J$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>3.8776611489768653</v>
-      </c>
-      <c r="N47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!K$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="O47">
-        <f>$D47*MAX(0, 5-$C$47*(5-ScoreCalculation!L$24)) +(1-$D47)*ScoreCalculation!$O$31</f>
-        <v>4.4588455322832754</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>61</v>
+      <c r="Z47" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!C$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!C$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="G48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!D$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>3.1139193730622896</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!D$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="H48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!E$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>2.5</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!E$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="I48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!F$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>4.0161277700716331</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!F$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="J48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!G$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>3.9779803085908099</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!G$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="L48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!I$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>2.5</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!I$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="M48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!J$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>2.7553222979537311</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!J$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="N48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!K$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!K$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="O48">
-        <f>$D48*MAX(0, 5-$C$47*(5-ScoreCalculation!L$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
-        <v>3.9176910645665499</v>
+        <f>$D48*MAX(0, 5-$C$49*(5-ScoreCalculation!L$24)) +(1-$D48)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="Z48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
+      <c r="C49">
+        <v>2</v>
+      </c>
       <c r="D49">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!C$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!C$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="G49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!D$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>2.1708790595934344</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!D$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>4.0569596865311448</v>
       </c>
       <c r="H49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!E$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>1.25</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!E$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>3.75</v>
       </c>
       <c r="I49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!F$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>3.5241916551074497</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!F$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>4.508063885035817</v>
       </c>
       <c r="J49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!G$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>3.4669704628862146</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!G$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>4.4889901542954052</v>
       </c>
       <c r="L49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!I$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>1.25</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!I$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>3.75</v>
       </c>
       <c r="M49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!J$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>1.6329834469305966</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!J$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>3.8776611489768653</v>
       </c>
       <c r="N49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!K$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!K$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="O49">
-        <f>$D49*MAX(0, 5-$C$47*(5-ScoreCalculation!L$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
-        <v>3.3765365968498249</v>
+        <f>$D49*MAX(0, 5-$C$49*(5-ScoreCalculation!L$24)) +(1-$D49)*ScoreCalculation!$O$31</f>
+        <v>4.4588455322832754</v>
       </c>
       <c r="Z49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="D50">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!C$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!C$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="G50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!D$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>1.2278387461245792</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!D$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>3.1139193730622896</v>
       </c>
       <c r="H50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!E$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>0</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!E$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>2.5</v>
       </c>
       <c r="I50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!F$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>3.0322555401432663</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!F$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>4.0161277700716331</v>
       </c>
       <c r="J50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!G$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>2.9559606171816197</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!G$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>3.9779803085908099</v>
       </c>
       <c r="L50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!I$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>0</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!I$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>2.5</v>
       </c>
       <c r="M50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!J$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>0.51064459590746214</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!J$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>2.7553222979537311</v>
       </c>
       <c r="N50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!K$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!K$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="O50">
-        <f>$D50*MAX(0, 5-$C$47*(5-ScoreCalculation!L$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
-        <v>2.8353821291330998</v>
+        <f>$D50*MAX(0, 5-$C$49*(5-ScoreCalculation!L$24)) +(1-$D50)*ScoreCalculation!$O$31</f>
+        <v>3.9176910645665499</v>
       </c>
       <c r="Z50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
-      <c r="B51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="Q51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S51" s="2">
-        <v>1</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z51" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>190</v>
+      <c r="D51">
+        <v>0.75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!C$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!D$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>2.1708790595934344</v>
+      </c>
+      <c r="H51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!E$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>1.25</v>
+      </c>
+      <c r="I51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!F$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>3.5241916551074497</v>
+      </c>
+      <c r="J51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!G$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>3.4669704628862146</v>
+      </c>
+      <c r="L51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!I$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>1.25</v>
+      </c>
+      <c r="M51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!J$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>1.6329834469305966</v>
+      </c>
+      <c r="N51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!K$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <f>$D51*MAX(0, 5-$C$49*(5-ScoreCalculation!L$24)) +(1-$D51)*ScoreCalculation!$O$31</f>
+        <v>3.3765365968498249</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="D52">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="28">
-        <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="28">
-        <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="28">
-        <f>IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
-        <f>IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="28">
-        <f>IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28">
-        <f>IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="28">
-        <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="28">
-        <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D52/2, 3, 5))</f>
-        <v>3</v>
-      </c>
-      <c r="O52" s="28">
-        <f>IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D52, 0, IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D52/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="F52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!C$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!D$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>1.2278387461245792</v>
+      </c>
+      <c r="H52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!E$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!F$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>3.0322555401432663</v>
+      </c>
+      <c r="J52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!G$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>2.9559606171816197</v>
+      </c>
+      <c r="L52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!I$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!J$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>0.51064459590746214</v>
+      </c>
+      <c r="N52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!K$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <f>$D52*MAX(0, 5-$C$49*(5-ScoreCalculation!L$24)) +(1-$D52)*ScoreCalculation!$O$31</f>
+        <v>2.8353821291330998</v>
+      </c>
       <c r="Z52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
-      <c r="D53">
-        <v>50000</v>
-      </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="28">
-        <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D53/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="G53" s="28">
-        <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="28">
-        <f>IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="28">
-        <f>IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="28">
-        <f>IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28">
-        <f>IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="28">
-        <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D53/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="28">
-        <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D53/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="O53" s="28">
-        <f>IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D53, 0, IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D53/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>122</v>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="Q53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S53" s="2">
+        <v>1</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA53" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="D54">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F54" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D54/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G54" s="28">
         <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D54/2, 3, 5))</f>
@@ -3869,27 +3852,28 @@
       </c>
       <c r="M54" s="28">
         <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D54/2, 3, 5))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N54" s="28">
         <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D54/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O54" s="28">
         <f>IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D54, 0, IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D54/2, 3, 5))</f>
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P54" s="28"/>
       <c r="Z54" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="D55">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F55" s="28">
         <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D55/2, 3, 5))</f>
@@ -3897,28 +3881,28 @@
       </c>
       <c r="G55" s="28">
         <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H55" s="28">
         <f>IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="28">
         <f>IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J55" s="28">
         <f>IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K55" s="28"/>
       <c r="L55" s="28">
         <f>IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M55" s="28">
         <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D55/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N55" s="28">
         <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D55, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D55/2, 3, 5))</f>
@@ -3929,147 +3913,149 @@
         <v>5</v>
       </c>
       <c r="Z55" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="Q56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S56" s="2">
-        <v>1</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z56" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>191</v>
+      <c r="D56">
+        <v>100000</v>
+      </c>
+      <c r="E56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" s="28">
+        <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D56/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G56" s="28">
+        <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D56/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="28">
+        <f>IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D56/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="28">
+        <f>IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D56/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="28">
+        <f>IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D56/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28">
+        <f>IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D56/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="28">
+        <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D56/2, 3, 5))</f>
+        <v>3</v>
+      </c>
+      <c r="N56" s="28">
+        <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D56/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O56" s="28">
+        <f>IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D56, 0, IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D56/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
       <c r="D57">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="E57" t="s">
-        <v>120</v>
-      </c>
-      <c r="F57">
-        <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D57/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D57/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D57/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f>IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D57/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f>IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D57/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f>IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D57/2, 3, 5))</f>
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <f>IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D57/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="N57">
-        <f>IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D57/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="O57">
-        <f>IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D57, 0, IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D57/2, 3, 5))</f>
+        <v>122</v>
+      </c>
+      <c r="F57" s="28">
+        <f>IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!C$33:'ScoreCalculation'!C$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G57" s="28">
+        <f>IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!D$33:'ScoreCalculation'!D$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="H57" s="28">
+        <f>IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!E$33:'ScoreCalculation'!E$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="I57" s="28">
+        <f>IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!F$33:'ScoreCalculation'!F$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="J57" s="28">
+        <f>IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!G$33:'ScoreCalculation'!G$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28">
+        <f>IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!I$33:'ScoreCalculation'!I$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="M57" s="28">
+        <f>IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!J$33:'ScoreCalculation'!J$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="N57" s="28">
+        <f>IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!K$33:'ScoreCalculation'!K$35) &gt;= $D57/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O57" s="28">
+        <f>IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D57, 0, IF(SUM(ScoreCalculation!L$33:'ScoreCalculation'!L$35) &gt;= $D57/2, 3, 5))</f>
         <v>5</v>
       </c>
       <c r="Z57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33"/>
-      <c r="D58">
-        <v>50000</v>
-      </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58">
-        <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="G58">
-        <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D58/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D58/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f>IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="J58">
-        <f>IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="L58">
-        <f>IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="M58">
-        <f>IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="N58">
-        <f>IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="O58">
-        <f>IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D58, 0, IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D58/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>122</v>
+      <c r="B58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="Q58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S58" s="2">
+        <v>1</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="33"/>
       <c r="D59">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F59">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D59/2, 3, 5))</f>
@@ -4077,7 +4063,7 @@
       </c>
       <c r="G59">
         <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D59/2, 3, 5))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D59/2, 3, 5))</f>
@@ -4085,15 +4071,15 @@
       </c>
       <c r="I59">
         <f>IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D59/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <f>IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D59/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L59">
         <f>IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D59/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M59">
         <f>IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D59, 0, IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D59/2, 3, 5))</f>
@@ -4108,16 +4094,16 @@
         <v>5</v>
       </c>
       <c r="Z59" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="33"/>
       <c r="D60">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F60">
         <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D60, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D60/2, 3, 5))</f>
@@ -4125,7 +4111,7 @@
       </c>
       <c r="G60">
         <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D60, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D60/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D60, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D60/2, 3, 5))</f>
@@ -4156,160 +4142,160 @@
         <v>5</v>
       </c>
       <c r="Z60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A61" s="33"/>
+      <c r="D61">
+        <v>100000</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61">
+        <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D61/2, 3, 5))</f>
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D61/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <f>IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <f>IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="M61">
+        <f>IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <f>IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <f>IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D61, 0, IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D61/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A62" s="33"/>
+      <c r="D62">
+        <v>1000000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62">
+        <f>IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!C$8:'ScoreCalculation'!C$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <f>IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!D$8:'ScoreCalculation'!D$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <f>IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!E$8:'ScoreCalculation'!E$9) &gt;= $D62/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!F$8:'ScoreCalculation'!F$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <f>IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!G$8:'ScoreCalculation'!G$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="L62">
+        <f>IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!I$8:'ScoreCalculation'!I$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <f>IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!J$8:'ScoreCalculation'!J$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <f>IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!K$8:'ScoreCalculation'!K$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <f>IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D62, 0, IF(SUM(ScoreCalculation!L$8:'ScoreCalculation'!L$9) &gt;= $D62/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="Q63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W63" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="X63" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="Q61" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S61" s="2">
-        <v>1</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W61" s="2" t="s">
+      <c r="Y63" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="X61" s="2" t="s">
+      <c r="Z63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z61" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="34"/>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="G62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="H62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="I62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="J62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="L62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="M62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="N62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="O62">
-        <f>$D62*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D62)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="34"/>
-      <c r="D63">
-        <v>0.25</v>
-      </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.6357162342532359</v>
-      </c>
-      <c r="G63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.1619122818755931</v>
-      </c>
-      <c r="H63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="I63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.2019227834685164</v>
-      </c>
-      <c r="J63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.4211203620351842</v>
-      </c>
-      <c r="L63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.7695098685888704</v>
-      </c>
-      <c r="M63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>5</v>
-      </c>
-      <c r="N63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.3395560721032114</v>
-      </c>
-      <c r="O63">
-        <f>$D63*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D63)*ScoreCalculation!$O$31</f>
-        <v>4.8575560809501503</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>61</v>
+      <c r="AA63" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="34"/>
       <c r="D64">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>4.2714324685064708</v>
+        <v>5</v>
       </c>
       <c r="G64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>3.3238245637511872</v>
+        <v>5</v>
       </c>
       <c r="H64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
@@ -4317,15 +4303,15 @@
       </c>
       <c r="I64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>3.4038455669370324</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>3.842240724070368</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>4.5390197371777408</v>
+        <v>5</v>
       </c>
       <c r="M64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
@@ -4333,31 +4319,31 @@
       </c>
       <c r="N64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>3.6791121442064232</v>
+        <v>5</v>
       </c>
       <c r="O64">
         <f>$D64*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D64)*ScoreCalculation!$O$31</f>
-        <v>4.7151121619003016</v>
+        <v>5</v>
       </c>
       <c r="Z64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="34"/>
       <c r="D65">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>3.9071487027597063</v>
+        <v>4.6357162342532359</v>
       </c>
       <c r="G65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>2.4857368456267803</v>
+        <v>4.1619122818755931</v>
       </c>
       <c r="H65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
@@ -4365,15 +4351,15 @@
       </c>
       <c r="I65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>2.6057683504055484</v>
+        <v>4.2019227834685164</v>
       </c>
       <c r="J65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>3.2633610861055518</v>
+        <v>4.4211203620351842</v>
       </c>
       <c r="L65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>4.308529605766612</v>
+        <v>4.7695098685888704</v>
       </c>
       <c r="M65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
@@ -4381,31 +4367,31 @@
       </c>
       <c r="N65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>3.018668216309635</v>
+        <v>4.3395560721032114</v>
       </c>
       <c r="O65">
         <f>$D65*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D65)*ScoreCalculation!$O$31</f>
-        <v>4.5726682428504528</v>
+        <v>4.8575560809501503</v>
       </c>
       <c r="Z65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="34"/>
       <c r="D66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>3.5428649370129417</v>
+        <v>4.2714324685064708</v>
       </c>
       <c r="G66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>1.6476491275023739</v>
+        <v>3.3238245637511872</v>
       </c>
       <c r="H66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
@@ -4413,15 +4399,15 @@
       </c>
       <c r="I66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>1.8076911338740649</v>
+        <v>3.4038455669370324</v>
       </c>
       <c r="J66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>2.684481448140736</v>
+        <v>3.842240724070368</v>
       </c>
       <c r="L66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>4.0780394743554824</v>
+        <v>4.5390197371777408</v>
       </c>
       <c r="M66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
@@ -4429,154 +4415,154 @@
       </c>
       <c r="N66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>2.3582242884128464</v>
+        <v>3.6791121442064232</v>
       </c>
       <c r="O66">
         <f>$D66*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D66)*ScoreCalculation!$O$31</f>
-        <v>4.4302243238006032</v>
+        <v>4.7151121619003016</v>
       </c>
       <c r="Z66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="34"/>
-      <c r="B67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="Q67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S67" s="2">
-        <v>1</v>
-      </c>
-      <c r="T67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z67" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>194</v>
+      <c r="D67">
+        <v>0.75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>3.9071487027597063</v>
+      </c>
+      <c r="G67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>2.4857368456267803</v>
+      </c>
+      <c r="H67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>2.6057683504055484</v>
+      </c>
+      <c r="J67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>3.2633610861055518</v>
+      </c>
+      <c r="L67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>4.308529605766612</v>
+      </c>
+      <c r="M67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>3.018668216309635</v>
+      </c>
+      <c r="O67">
+        <f>$D67*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D67)*ScoreCalculation!$O$31</f>
+        <v>4.5726682428504528</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="34"/>
       <c r="D68">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F68">
-        <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D68/2, 3, 5))</f>
-        <v>5</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!C$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>3.5428649370129417</v>
       </c>
       <c r="G68">
-        <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D68/2, 3, 5))</f>
-        <v>0</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!D$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>1.6476491275023739</v>
       </c>
       <c r="H68">
-        <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D68/2, 3, 5))</f>
-        <v>0</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!E$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>5</v>
       </c>
       <c r="I68">
-        <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D68/2, 3, 5))</f>
-        <v>0</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!F$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>1.8076911338740649</v>
       </c>
       <c r="J68">
-        <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D68/2, 3, 5))</f>
-        <v>0</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!G$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>2.684481448140736</v>
       </c>
       <c r="L68">
-        <f>IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D68/2, 3, 5))</f>
-        <v>3</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!I$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>4.0780394743554824</v>
       </c>
       <c r="M68">
-        <f>IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D68/2, 3, 5))</f>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!J$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
         <v>5</v>
       </c>
       <c r="N68">
-        <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D68/2, 3, 5))</f>
-        <v>0</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!K$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>2.3582242884128464</v>
       </c>
       <c r="O68">
-        <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D68, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D68/2, 3, 5))</f>
-        <v>5</v>
+        <f>$D68*MAX(0, 5-(5-ScoreCalculation!L$21)) +(1-$D68)*ScoreCalculation!$O$31</f>
+        <v>4.4302243238006032</v>
       </c>
       <c r="Z68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="34"/>
-      <c r="D69">
-        <v>50000</v>
-      </c>
-      <c r="E69" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69">
-        <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D69/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="G69">
-        <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D69/2, 3, 5))</f>
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D69/2, 3, 5))</f>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D69/2, 3, 5))</f>
-        <v>3</v>
-      </c>
-      <c r="J69">
-        <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D69/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <f>IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D69/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="M69">
-        <f>IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D69/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="N69">
-        <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D69/2, 3, 5))</f>
-        <v>3</v>
-      </c>
-      <c r="O69">
-        <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D69, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D69/2, 3, 5))</f>
-        <v>5</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>122</v>
+      <c r="B69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="Q69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="34"/>
       <c r="D70">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F70">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D70/2, 3, 5))</f>
@@ -4584,7 +4570,7 @@
       </c>
       <c r="G70">
         <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D70/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D70/2, 3, 5))</f>
@@ -4592,15 +4578,15 @@
       </c>
       <c r="I70">
         <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D70/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D70/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L70">
         <f>IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D70/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70">
         <f>IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D70/2, 3, 5))</f>
@@ -4608,23 +4594,23 @@
       </c>
       <c r="N70">
         <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D70/2, 3, 5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D70, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D70/2, 3, 5))</f>
         <v>5</v>
       </c>
       <c r="Z70" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="34"/>
       <c r="D71">
-        <v>1000000</v>
+        <v>50000</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F71">
         <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D71/2, 3, 5))</f>
@@ -4632,7 +4618,7 @@
       </c>
       <c r="G71">
         <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D71/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71">
         <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D71/2, 3, 5))</f>
@@ -4640,7 +4626,7 @@
       </c>
       <c r="I71">
         <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D71/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J71">
         <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D71/2, 3, 5))</f>
@@ -4656,187 +4642,241 @@
       </c>
       <c r="N71">
         <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D71/2, 3, 5))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O71">
         <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D71, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D71/2, 3, 5))</f>
         <v>5</v>
       </c>
       <c r="Z71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A72" s="34"/>
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72">
+        <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D72/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="L72">
+        <f>IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <f>IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O72">
+        <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D72, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D72/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A73" s="34"/>
+      <c r="D73">
+        <v>1000000</v>
+      </c>
+      <c r="E73" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73">
+        <f>IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!C$8,ScoreCalculation!C$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <f>IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!D$8,ScoreCalculation!D$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <f>IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!E$8,ScoreCalculation!E$10) &gt;= $D73/2, 3, 5))</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!F$8,ScoreCalculation!F$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <f>IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!G$8,ScoreCalculation!G$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="L73">
+        <f>IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!I$8,ScoreCalculation!I$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <f>IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!J$8,ScoreCalculation!J$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="N73">
+        <f>IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!K$8,ScoreCalculation!K$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <f>IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D73, 0, IF(SUM(ScoreCalculation!L$8,ScoreCalculation!L$10) &gt;= $D73/2, 3, 5))</f>
+        <v>5</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="Q74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="2">
+        <v>1</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W74" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="7" t="s">
+      <c r="X74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S72" s="2">
+      <c r="Z74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
         <v>1</v>
       </c>
-      <c r="T72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y72" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA72" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" t="s">
-        <v>41</v>
-      </c>
-      <c r="L73">
-        <v>5</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>5</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="Z73" t="s">
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75">
+        <v>5</v>
+      </c>
+      <c r="Z75" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="E74" t="s">
-        <v>21</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S75" s="2">
-        <v>3</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z75" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="29"/>
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z76" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29"/>
-      <c r="E77" t="s">
-        <v>155</v>
-      </c>
-      <c r="L77">
-        <v>5</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>5</v>
-      </c>
-      <c r="O77">
-        <v>5</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>156</v>
+      <c r="B77" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S77" s="2">
+        <v>3</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="29"/>
+      <c r="B78" t="s">
+        <v>107</v>
+      </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L78">
         <v>5</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <v>5</v>
@@ -4844,17 +4884,14 @@
       <c r="O78">
         <v>5</v>
       </c>
-      <c r="X78" t="s">
-        <v>158</v>
-      </c>
       <c r="Z78" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="29"/>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L79">
         <v>5</v>
@@ -4868,106 +4905,148 @@
       <c r="O79">
         <v>5</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Z79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>5</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="X80" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A81" s="29"/>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>5</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="X81" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="Z79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
+      <c r="C82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="Q82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="X82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="Q80" s="2" t="s">
+      <c r="Z82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A83" s="30"/>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="X83" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A84" s="30"/>
+      <c r="E84" t="s">
         <v>21</v>
       </c>
-      <c r="S80" s="2">
-        <v>1</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y80" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z80" s="2" t="s">
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>-1</v>
+      </c>
+      <c r="V84" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC84" t="s">
         <v>196</v>
-      </c>
-      <c r="AA80" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A81" s="30"/>
-      <c r="B81" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" t="s">
-        <v>41</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="X81" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A82" s="30"/>
-      <c r="E82" t="s">
-        <v>21</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>-1</v>
-      </c>
-      <c r="V82" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5000,11 +5079,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>2</v>
@@ -5020,13 +5099,13 @@
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>9</v>
@@ -5066,7 +5145,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="20"/>
@@ -5082,10 +5161,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="9">
         <v>62056</v>
@@ -5103,7 +5182,7 @@
         <v>4535035</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I4">
         <v>247152</v>
@@ -5120,10 +5199,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="9">
         <v>74852</v>
@@ -5141,7 +5220,7 @@
         <v>504653</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I5">
         <v>476989</v>
@@ -5158,10 +5237,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="9">
         <v>59944</v>
@@ -5179,7 +5258,7 @@
         <v>10382235</v>
       </c>
       <c r="H6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I6">
         <v>236726</v>
@@ -5196,7 +5275,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="20"/>
@@ -5212,10 +5291,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C8" s="9">
         <v>1568</v>
@@ -5233,7 +5312,7 @@
         <v>5122</v>
       </c>
       <c r="H8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I8">
         <v>2592</v>
@@ -5250,10 +5329,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" s="9">
         <v>3168</v>
@@ -5271,7 +5350,7 @@
         <v>16494</v>
       </c>
       <c r="H9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I9">
         <v>4864</v>
@@ -5288,10 +5367,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="9">
         <v>1568</v>
@@ -5309,7 +5388,7 @@
         <v>5154</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I10">
         <v>4595</v>
@@ -5326,11 +5405,11 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>2</v>
@@ -5346,13 +5425,13 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>9</v>
@@ -5360,7 +5439,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="20"/>
@@ -5376,7 +5455,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="23">
@@ -5410,7 +5489,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="23">
@@ -5444,7 +5523,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="23">
@@ -5478,7 +5557,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="25"/>
@@ -5494,7 +5573,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="23">
@@ -5528,7 +5607,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="23">
@@ -5562,7 +5641,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="23">
@@ -5596,12 +5675,12 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -5633,7 +5712,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -5665,7 +5744,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25">
         <v>4.7571441561688239</v>
@@ -5697,7 +5776,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5713,7 +5792,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -5743,12 +5822,12 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C30">
         <f>5-$O$30*(5-C28)</f>
@@ -5787,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O30">
         <v>3</v>
@@ -5795,7 +5874,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O31">
         <v>5</v>
@@ -5803,7 +5882,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5819,10 +5898,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C33">
         <v>6116</v>
@@ -5854,10 +5933,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C34">
         <v>8780</v>
@@ -5889,10 +5968,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C35">
         <v>9556</v>
@@ -5924,37 +6003,37 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5966,65 +6045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Cluster Document" ma:contentTypeID="0x010100A35317DCC28344A7B82488658A034A5C01008D81D188DA6BC443BF17172C4B505507" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8aa881352a24089148fe1e0d4b98037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7" xmlns:ns3="673f842b-d5bd-4ddf-8e8f-113718fad97a" xmlns:ns5="732bbd6f-0030-4cf3-b969-3707b8f3c745" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37b3cf052d57df052a9e8ab2332671e7" ns2:_="" ns3:_="" ns5:_="">
     <xsd:import namespace="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
@@ -6275,7 +6295,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">PQC Beslisboom</TNOC_ClusterName>
@@ -6315,23 +6335,66 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6066CEB6-899C-40B9-B1A5-21F741553731}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6351,7 +6414,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032FD5B7-4C2A-4ADC-ADEC-4672C492D926}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -6367,4 +6430,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scoring/Scoring_Questions new.xlsx
+++ b/scoring/Scoring_Questions new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ledersb\Workspace\WinProjects\pqc-dt\PQChoiceAssistant\scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DE8800-6AB3-4B60-9799-957293A67F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0804CF2-0A0C-471E-B9DA-86B5D2980329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8EDCA17D-B8E0-4188-B2A8-1D102FBE3550}"/>
   </bookViews>
@@ -845,13 +845,13 @@
     <t>You indicated that you require fast, constant-time signature generation, but you do not have suitable hardware for FN-DSA. For this reason, you should not use FN-DSA and it is therefore not displayed as an option.</t>
   </si>
   <si>
-    <t>Welke van de volgende stellingen is van toepassing op uw situatie?\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30001. De duur van het zetten van een handtekening kan worden getimed door een niet vertrouwde partij\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30002. Het is belangrijk dat het zetten van handtekeningen snel is\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30003. I k kan hardware gebruiken die speciaal ontworpen of gecontroleerd veilig is voor FN-DSA</t>
-  </si>
-  <si>
     <t>Sommige PQC-algoritmen hebben hardwareondersteuning nodig voor floating point arithmetic, om te garanderen dat het algoritme veilig en efficiënt is geïmplementeerd. In het bijzonder is FN-DSA zeer moeilijk veilig te implementeren met algemene floating point hardware-ondersteuning, en is zeer langzaam zonder floating points. In sommige situaties is daarom speciale hardware vereist.</t>
   </si>
   <si>
     <t>Some cryptographic schemes require support for floating point arithmetic to enable a secure, efficient implementation. In particular, FN-DSA is very difficult to implement securely with general floating point hardware support, and very slow without floating points. In some situations, it may thus require special hardware.</t>
+  </si>
+  <si>
+    <t>Welke van de volgende stellingen is van toepassing op uw situatie?\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30001. De duur van het zetten van een handtekening kan worden getimed door een niet vertrouwde partij\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30002. Het is belangrijk dat het zetten van handtekeningen snel is\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u3000\u30003. Ik kan hardware gebruiken die speciaal ontworpen of gecontroleerd veilig is voor FN-DSA</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1457,10 @@
   <dimension ref="A1:AC84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC44" sqref="AC44"/>
+      <selection pane="bottomRight" activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,16 +3377,16 @@
         <v>41</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>107</v>
       </c>
       <c r="Z42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA42" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -6045,6 +6045,105 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">PQC Beslisboom</TNOC_ClusterName>
+    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">P060.55368</TNOC_ClusterId>
+    <TaxCatchAll xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Value>5</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <lca20d149a844688b6abf34073d5c21d xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lca20d149a844688b6abf34073d5c21d>
+    <bac4ab11065f4f6c809c820c57e320e5 xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bac4ab11065f4f6c809c820c57e320e5>
+    <h15fbb78f4cb41d290e72f301ea2865f xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
+        </TermInfo>
+      </Terms>
+    </h15fbb78f4cb41d290e72f301ea2865f>
+    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
+        </TermInfo>
+      </Terms>
+    </n2a7a23bcc2241cb9261f9a914c7c1bb>
+    <_dlc_DocId xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">QEDC3X5A3XE2-1796170530-30</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
+      <Url>https://365tno.sharepoint.com/teams/P060.61503/_layouts/15/DocIdRedir.aspx?ID=QEDC3X5A3XE2-1796170530-30</Url>
+      <Description>QEDC3X5A3XE2-1796170530-30</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Cluster Document" ma:contentTypeID="0x010100A35317DCC28344A7B82488658A034A5C01008D81D188DA6BC443BF17172C4B505507" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b8aa881352a24089148fe1e0d4b98037">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7" xmlns:ns3="673f842b-d5bd-4ddf-8e8f-113718fad97a" xmlns:ns5="732bbd6f-0030-4cf3-b969-3707b8f3c745" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37b3cf052d57df052a9e8ab2332671e7" ns2:_="" ns3:_="" ns5:_="">
     <xsd:import namespace="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
@@ -6295,106 +6394,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">PQC Beslisboom</TNOC_ClusterName>
-    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">P060.55368</TNOC_ClusterId>
-    <TaxCatchAll xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Value>5</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <lca20d149a844688b6abf34073d5c21d xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lca20d149a844688b6abf34073d5c21d>
-    <bac4ab11065f4f6c809c820c57e320e5 xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bac4ab11065f4f6c809c820c57e320e5>
-    <h15fbb78f4cb41d290e72f301ea2865f xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
-        </TermInfo>
-      </Terms>
-    </h15fbb78f4cb41d290e72f301ea2865f>
-    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
-        </TermInfo>
-      </Terms>
-    </n2a7a23bcc2241cb9261f9a914c7c1bb>
-    <_dlc_DocId xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">QEDC3X5A3XE2-1796170530-30</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="673f842b-d5bd-4ddf-8e8f-113718fad97a">
-      <Url>https://365tno.sharepoint.com/teams/P060.61503/_layouts/15/DocIdRedir.aspx?ID=QEDC3X5A3XE2-1796170530-30</Url>
-      <Description>QEDC3X5A3XE2-1796170530-30</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032FD5B7-4C2A-4ADC-ADEC-4672C492D926}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="673f842b-d5bd-4ddf-8e8f-113718fad97a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="732bbd6f-0030-4cf3-b969-3707b8f3c745"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6066CEB6-899C-40B9-B1A5-21F741553731}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6412,38 +6446,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032FD5B7-4C2A-4ADC-ADEC-4672C492D926}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="673f842b-d5bd-4ddf-8e8f-113718fad97a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="732bbd6f-0030-4cf3-b969-3707b8f3c745"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C73BCC-CFD8-4413-A0AB-142D37401450}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51868BB2-B000-41EF-B1C0-D1C244DAFED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>